--- a/Experimental_data_CO_2/Data_CO2_LoKI_TD.xlsx
+++ b/Experimental_data_CO_2/Data_CO2_LoKI_TD.xlsx
@@ -513,7 +513,7 @@
         <v>1.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -560,7 +560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -607,7 +607,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -654,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>0.8</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
         <v>1.5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>1.5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1030,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1124,7 +1124,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -1218,7 +1218,7 @@
         <v>0.8</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -1265,7 +1265,7 @@
         <v>1.5</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -1312,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -1359,7 +1359,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -1406,7 +1406,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -1453,7 +1453,7 @@
         <v>0.4</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -1500,7 +1500,7 @@
         <v>0.6</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -1547,7 +1547,7 @@
         <v>0.8</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -1594,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -1641,7 +1641,7 @@
         <v>1.5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1688,7 +1688,7 @@
         <v>0.4</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -1735,7 +1735,7 @@
         <v>0.6</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -1782,7 +1782,7 @@
         <v>0.8</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -1829,7 +1829,7 @@
         <v>0.4</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -1876,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -1923,7 +1923,7 @@
         <v>1.5</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -1970,7 +1970,7 @@
         <v>0.4</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -2017,7 +2017,7 @@
         <v>0.6</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>0.8</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -2111,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -2158,7 +2158,7 @@
         <v>0.4</v>
       </c>
       <c r="C37" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D37" t="n">
         <v>0.5</v>
@@ -2205,7 +2205,7 @@
         <v>0.4</v>
       </c>
       <c r="C38" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D38" t="n">
         <v>0.5</v>
@@ -2252,7 +2252,7 @@
         <v>0.6</v>
       </c>
       <c r="C39" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D39" t="n">
         <v>0.5</v>
@@ -2299,7 +2299,7 @@
         <v>0.8</v>
       </c>
       <c r="C40" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D40" t="n">
         <v>0.5</v>
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D41" t="n">
         <v>0.5</v>
@@ -2393,7 +2393,7 @@
         <v>1.5</v>
       </c>
       <c r="C42" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D42" t="n">
         <v>0.5</v>
@@ -2440,7 +2440,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D43" t="n">
         <v>0.5</v>
@@ -2487,7 +2487,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D44" t="n">
         <v>0.5</v>
@@ -2534,7 +2534,7 @@
         <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D45" t="n">
         <v>0.5</v>
@@ -2581,7 +2581,7 @@
         <v>0.4</v>
       </c>
       <c r="C46" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D46" t="n">
         <v>0.5</v>
@@ -2628,7 +2628,7 @@
         <v>0.6</v>
       </c>
       <c r="C47" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D47" t="n">
         <v>0.5</v>
@@ -2675,7 +2675,7 @@
         <v>0.6</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D48" t="n">
         <v>0.5</v>
@@ -2722,7 +2722,7 @@
         <v>0.8</v>
       </c>
       <c r="C49" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D49" t="n">
         <v>0.5</v>
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
         <v>0.5</v>
@@ -2816,7 +2816,7 @@
         <v>1.5</v>
       </c>
       <c r="C51" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
         <v>0.5</v>
@@ -2863,7 +2863,7 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D52" t="n">
         <v>0.5</v>
@@ -2910,7 +2910,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D53" t="n">
         <v>0.5</v>
@@ -2957,7 +2957,7 @@
         <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D54" t="n">
         <v>0.5</v>
@@ -3004,7 +3004,7 @@
         <v>1.5</v>
       </c>
       <c r="C55" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
@@ -3051,7 +3051,7 @@
         <v>0.4</v>
       </c>
       <c r="C56" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D56" t="n">
         <v>0.25</v>
@@ -3098,7 +3098,7 @@
         <v>0.4</v>
       </c>
       <c r="C57" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D57" t="n">
         <v>0.25</v>
@@ -3145,7 +3145,7 @@
         <v>0.6</v>
       </c>
       <c r="C58" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D58" t="n">
         <v>0.25</v>
@@ -3192,7 +3192,7 @@
         <v>0.6</v>
       </c>
       <c r="C59" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D59" t="n">
         <v>0.25</v>
@@ -3239,7 +3239,7 @@
         <v>0.8</v>
       </c>
       <c r="C60" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D60" t="n">
         <v>0.25</v>
@@ -3286,7 +3286,7 @@
         <v>0.8</v>
       </c>
       <c r="C61" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D61" t="n">
         <v>0.25</v>
@@ -3333,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D62" t="n">
         <v>0.25</v>
@@ -3380,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D63" t="n">
         <v>0.25</v>
@@ -3427,7 +3427,7 @@
         <v>0.4</v>
       </c>
       <c r="C64" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D64" t="n">
         <v>0.5</v>
@@ -3474,7 +3474,7 @@
         <v>0.4</v>
       </c>
       <c r="C65" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D65" t="n">
         <v>0.5</v>
@@ -3521,7 +3521,7 @@
         <v>0.6</v>
       </c>
       <c r="C66" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D66" t="n">
         <v>0.5</v>
@@ -3568,7 +3568,7 @@
         <v>0.6</v>
       </c>
       <c r="C67" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D67" t="n">
         <v>0.5</v>
@@ -3615,7 +3615,7 @@
         <v>0.8</v>
       </c>
       <c r="C68" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D68" t="n">
         <v>0.5</v>
@@ -3662,7 +3662,7 @@
         <v>0.8</v>
       </c>
       <c r="C69" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D69" t="n">
         <v>0.5</v>
@@ -3709,7 +3709,7 @@
         <v>0.8</v>
       </c>
       <c r="C70" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D70" t="n">
         <v>0.5</v>
@@ -3756,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D71" t="n">
         <v>0.5</v>
@@ -3803,7 +3803,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D72" t="n">
         <v>0.5</v>
@@ -3850,7 +3850,7 @@
         <v>1.5</v>
       </c>
       <c r="C73" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D73" t="n">
         <v>0.5</v>
@@ -3897,7 +3897,7 @@
         <v>1.5</v>
       </c>
       <c r="C74" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D74" t="n">
         <v>0.5</v>
@@ -3944,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D75" t="n">
         <v>0.5</v>
@@ -3991,7 +3991,7 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D76" t="n">
         <v>0.5</v>
@@ -4038,7 +4038,7 @@
         <v>3</v>
       </c>
       <c r="C77" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D77" t="n">
         <v>0.5</v>
@@ -4085,7 +4085,7 @@
         <v>3</v>
       </c>
       <c r="C78" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D78" t="n">
         <v>0.5</v>
@@ -4132,7 +4132,7 @@
         <v>5</v>
       </c>
       <c r="C79" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D79" t="n">
         <v>0.5</v>
@@ -4179,7 +4179,7 @@
         <v>5</v>
       </c>
       <c r="C80" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D80" t="n">
         <v>0.5</v>
@@ -4226,7 +4226,7 @@
         <v>7.5</v>
       </c>
       <c r="C81" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D81" t="n">
         <v>0.5</v>
@@ -4273,7 +4273,7 @@
         <v>7.5</v>
       </c>
       <c r="C82" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D82" t="n">
         <v>0.5</v>
@@ -4320,7 +4320,7 @@
         <v>0.4</v>
       </c>
       <c r="C83" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -4367,7 +4367,7 @@
         <v>0.4</v>
       </c>
       <c r="C84" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -4414,7 +4414,7 @@
         <v>0.6</v>
       </c>
       <c r="C85" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
@@ -4461,7 +4461,7 @@
         <v>0.6</v>
       </c>
       <c r="C86" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -4508,7 +4508,7 @@
         <v>0.8</v>
       </c>
       <c r="C87" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -4555,7 +4555,7 @@
         <v>0.8</v>
       </c>
       <c r="C88" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -4602,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -4649,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -4696,7 +4696,7 @@
         <v>1.5</v>
       </c>
       <c r="C91" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -4743,7 +4743,7 @@
         <v>1.5</v>
       </c>
       <c r="C92" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -4790,7 +4790,7 @@
         <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -4837,7 +4837,7 @@
         <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
@@ -4884,7 +4884,7 @@
         <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -4931,7 +4931,7 @@
         <v>3</v>
       </c>
       <c r="C96" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -4978,7 +4978,7 @@
         <v>5</v>
       </c>
       <c r="C97" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -5025,7 +5025,7 @@
         <v>5</v>
       </c>
       <c r="C98" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -5072,7 +5072,7 @@
         <v>7.5</v>
       </c>
       <c r="C99" t="n">
-        <v>0.04</v>
+        <v>40</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
